--- a/ON/bt/strategyON_20230720.xlsx
+++ b/ON/bt/strategyON_20230720.xlsx
@@ -600,7 +600,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>48.8%</t>
+          <t>48.7%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -628,12 +628,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>68.3%</t>
+          <t>68.2%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>67.1%</t>
+          <t>66.7%</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>85.7%</t>
+          <t>85.3%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -763,16 +763,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>59.8%</t>
+          <t>59.7%</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -781,12 +781,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>31.1%</t>
+          <t>31.0%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>7.0%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>72.3%</t>
+          <t>71.9%</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>16.4%</t>
+          <t>15.5%</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31.7%</t>
+          <t>31.3%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -916,16 +916,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>52.2%</t>
+          <t>52.1%</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>53.9%</t>
+          <t>53.4%</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>6.8%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>110.2%</t>
+          <t>109.4%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1069,16 +1069,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>58.6%</t>
+          <t>58.5%</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>8.7%</t>
+          <t>8.8%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>105.9%</t>
+          <t>105.1%</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>19.6%</t>
+          <t>18.2%</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>54.4%</t>
+          <t>54.3%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>69.8%</t>
+          <t>69.7%</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>1.8%</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>142.8%</t>
+          <t>142.1%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>33.4%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>137.1%</t>
+          <t>136.4%</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>17.6%</t>
+          <t>16.6%</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1663"/>
+  <dimension ref="A1:G1664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39769,7 +39769,7 @@
         <v>45125</v>
       </c>
       <c r="B1663" t="n">
-        <v>2.906324470825316</v>
+        <v>2.906505690664266</v>
       </c>
       <c r="C1663" t="n">
         <v>3.019338116659321</v>
@@ -39785,6 +39785,29 @@
       </c>
       <c r="G1663" t="n">
         <v>4.287062993146002</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>2.902115006977795</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>3.009510182498196</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>1.492041362255854</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>3.605970303086791</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>2.11105715749598</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>4.276144476995786</v>
       </c>
     </row>
   </sheetData>
